--- a/mysite/DB1_Plant.xlsx
+++ b/mysite/DB1_Plant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCG\PycharmProjects\django-wms-skk\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429CB61E-B0C3-4081-B464-DE10A53E20CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06347662-F20E-4657-9F91-C228F15BF814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>plant_id</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Mortar NR</t>
+  </si>
+  <si>
+    <t>SWCC</t>
+  </si>
+  <si>
+    <t>Siam White Cement</t>
+  </si>
+  <si>
+    <t>SMC LP</t>
+  </si>
+  <si>
+    <t>Mortar LP</t>
   </si>
 </sst>
 </file>
@@ -416,17 +428,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E37AC4-436A-4D1C-82B6-90909A71FC62}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -486,6 +498,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mysite/DB1_Plant.xlsx
+++ b/mysite/DB1_Plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06347662-F20E-4657-9F91-C228F15BF814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA181B7-2AEF-45A7-8F3D-D185F4BFBB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
